--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R210_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R210_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -622,10 +634,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -669,28 +681,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -715,28 +727,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1491,10 +1503,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1538,28 +1550,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1584,28 +1596,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2273,10 +2285,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2320,28 +2332,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2366,28 +2378,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3055,10 +3067,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="J101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3102,28 +3114,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3148,28 +3160,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3576,10 +3588,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
+      <c r="J119" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K119" s="2" t="s">
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3623,28 +3635,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3669,28 +3681,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3865,10 +3877,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
+      <c r="J129" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K129" s="2" t="s">
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3912,28 +3924,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3958,28 +3970,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4067,10 +4079,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="J136" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
